--- a/SC_DCF_QRev.xlsx
+++ b/SC_DCF_QRev.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>290241.079056</v>
+        <v>285517.9152</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>290241.079056</v>
+        <v>285517.9152</v>
       </c>
       <c r="E2">
-        <v>285123.5476153326</v>
+        <v>280483.6625963984</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>290241.079056</v>
+        <v>285517.9152</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>290241.079056</v>
+        <v>285517.9152</v>
       </c>
       <c r="E3">
-        <v>280096.2485019822</v>
+        <v>275538.1739474478</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>290241.079056</v>
+        <v>285517.9152</v>
       </c>
       <c r="C4">
         <v>473000</v>
       </c>
       <c r="D4">
-        <v>763241.079056</v>
+        <v>758517.9151999999</v>
       </c>
       <c r="E4">
-        <v>723576.3357460902</v>
+        <v>719098.6291736402</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>271999.818576</v>
+        <v>267573.4992</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>271999.818576</v>
+        <v>267573.4992</v>
       </c>
       <c r="E5">
-        <v>253317.6430459359</v>
+        <v>249195.3432680646</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>271999.818576</v>
+        <v>267573.4992</v>
       </c>
       <c r="C6">
         <v>44000</v>
       </c>
       <c r="D6">
-        <v>315999.818576</v>
+        <v>311573.4992</v>
       </c>
       <c r="E6">
-        <v>289106.5049690771</v>
+        <v>285056.889591325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E7">
-        <v>242938.3252333755</v>
+        <v>238984.9306253088</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E8">
-        <v>238654.8360678566</v>
+        <v>234771.1477235275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E9">
-        <v>234446.873394148</v>
+        <v>230631.6622525377</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E10">
-        <v>230313.1055289546</v>
+        <v>226565.1641998515</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E11">
-        <v>226252.2242692251</v>
+        <v>222570.3666511248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,16 +584,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E12">
-        <v>222262.9444781475</v>
+        <v>218646.0053828901</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -601,16 +601,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E13">
-        <v>218344.003678445</v>
+        <v>214790.8384624716</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,16 +618,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E14">
-        <v>214494.1616528437</v>
+        <v>211003.6458549533</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E15">
-        <v>210712.2000515839</v>
+        <v>207283.2290370782</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,16 +652,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="E16">
-        <v>206996.9220068515</v>
+        <v>203628.4106179541</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -669,16 +669,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>270302.957136</v>
+        <v>265904.2512</v>
       </c>
       <c r="C17">
         <v>17000</v>
       </c>
       <c r="D17">
-        <v>287302.957136</v>
+        <v>282904.2512</v>
       </c>
       <c r="E17">
-        <v>216136.1408810458</v>
+        <v>212827.023093485</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,16 +686,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>269454.526416</v>
+        <v>265069.6272</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>269454.526416</v>
+        <v>265069.6272</v>
       </c>
       <c r="E18">
-        <v>199134.7193210739</v>
+        <v>195894.1514737137</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -703,16 +703,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>269454.526416</v>
+        <v>265069.6272</v>
       </c>
       <c r="C19">
         <v>703800</v>
       </c>
       <c r="D19">
-        <v>973254.526416</v>
+        <v>968869.6272</v>
       </c>
       <c r="E19">
-        <v>706581.3026367836</v>
+        <v>703397.8724899116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -720,16 +720,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>244208.409804</v>
+        <v>240234.3468</v>
       </c>
       <c r="C20">
         <v>4449300</v>
       </c>
       <c r="D20">
-        <v>4693508.409804001</v>
+        <v>4689534.346799999</v>
       </c>
       <c r="E20">
-        <v>3347399.25603278</v>
+        <v>3344564.963562944</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -737,16 +737,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>81944.26704000001</v>
+        <v>80610.768</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>81944.26704000001</v>
+        <v>80610.768</v>
       </c>
       <c r="E21">
-        <v>57412.00261212172</v>
+        <v>56477.72309345361</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -754,16 +754,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>81944.26704000001</v>
+        <v>80610.768</v>
       </c>
       <c r="C22">
         <v>130900</v>
       </c>
       <c r="D22">
-        <v>212844.26704</v>
+        <v>211510.768</v>
       </c>
       <c r="E22">
-        <v>146494.150585941</v>
+        <v>145576.3442861112</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -771,16 +771,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>75411.350496</v>
+        <v>74184.1632</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>75411.350496</v>
+        <v>74184.1632</v>
       </c>
       <c r="E23">
-        <v>50988.14960613747</v>
+        <v>50158.40701391963</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,16 +788,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>75411.350496</v>
+        <v>74184.1632</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>75411.350496</v>
+        <v>74184.1632</v>
       </c>
       <c r="E24">
-        <v>50089.12642320438</v>
+        <v>49274.01385447303</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -805,16 +805,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>75411.350496</v>
+        <v>74184.1632</v>
       </c>
       <c r="C25">
         <v>1144100</v>
       </c>
       <c r="D25">
-        <v>1219511.350496</v>
+        <v>1218284.1632</v>
       </c>
       <c r="E25">
-        <v>795731.9424656529</v>
+        <v>794931.2019637967</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -822,16 +822,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E26">
-        <v>11737.89051428508</v>
+        <v>11546.87695961159</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -839,16 +839,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E27">
-        <v>11530.92799902246</v>
+        <v>11343.28239582853</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -856,16 +856,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E28">
-        <v>11327.61464735289</v>
+        <v>11143.2776119095</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -873,16 +873,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E29">
-        <v>11127.88611721464</v>
+        <v>10946.79931284685</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,16 +890,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E30">
-        <v>10931.67920102541</v>
+        <v>10753.78531965065</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -907,16 +907,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E31">
-        <v>10738.93180567913</v>
+        <v>10564.17454967112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -924,16 +924,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="E32">
-        <v>10549.58293289554</v>
+        <v>10377.90699726786</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,16 +941,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>18311.96304</v>
+        <v>18013.968</v>
       </c>
       <c r="C33">
         <v>306900</v>
       </c>
       <c r="D33">
-        <v>325211.96304</v>
+        <v>324913.968</v>
       </c>
       <c r="E33">
-        <v>184052.23959206</v>
+        <v>183883.5906469639</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -958,16 +958,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="E34">
-        <v>36.3601504305034</v>
+        <v>35.76845283597047</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -975,16 +975,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="E35">
-        <v>35.7190481660662</v>
+        <v>35.13778338501798</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -992,16 +992,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="E36">
-        <v>35.08924981837853</v>
+        <v>34.51823389942123</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1009,16 +1009,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="E37">
-        <v>34.47055607675162</v>
+        <v>33.90960831192292</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1026,16 +1026,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="E38">
-        <v>33.86277114474333</v>
+        <v>33.31171401232414</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1043,16 +1043,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>65.399868</v>
+        <v>64.3356</v>
       </c>
       <c r="C39">
         <v>1100</v>
       </c>
       <c r="D39">
-        <v>1165.399868</v>
+        <v>1164.3356</v>
       </c>
       <c r="E39">
-        <v>592.7817088269276</v>
+        <v>592.2403679352622</v>
       </c>
     </row>
   </sheetData>
